--- a/docs/PTA2_DDC_60/PTA1_R6_BDDC_02.08.24_output.xlsx
+++ b/docs/PTA2_DDC_60/PTA1_R6_BDDC_02.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K96"/>
+  <dimension ref="A1:N96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,1741 +505,2063 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731408615.6958508</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731408627.4926765</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731408615.6958508.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731408627.4926765.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>285.6</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>285.49</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.1100000000000136</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731408627.9960465</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731408632.0806231</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731408627.9960465.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731408632.0806231.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>285.87</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>286.15</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.2799999999999727</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731408636.3199866</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731408636.7716396</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731408636.3199866.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731408636.7716396.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>285.11</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>285.49</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.3799999999999955</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731408637.324928</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731408637.324928.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731408637.324928.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>285.55</v>
       </c>
-      <c r="J6" t="n">
-        <v>285.55</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
+      <c r="L6" t="n">
+        <v>286.24</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.6899999999999977</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731408644.0280287</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731408652.450428</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731408644.0280287.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731408652.450428.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>131.41</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>130.87</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.539999999999992</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731408654.164281</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731408658.3100796</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731408654.164281.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731408658.3100796.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>131.73</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>131.03</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.6999999999999886</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731408659.6716747</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731408660.7371778</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731408659.6716747.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731408660.7371778.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>130.74</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>130.9</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.1599999999999966</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731408661.0438948</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731408661.389472</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731408661.0438948.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731408661.389472.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>131.27</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>131.02</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.25</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731408664.658017</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731408665.5332847</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731408664.658017.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731408665.5332847.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>6657.5</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>6689.5</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>32</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731408665.572385</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731408665.960787</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731408665.572385.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731408665.960787.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>6710.5</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>6681.5</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>29</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731408668.94433</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731408678.485326</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731408668.94433.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731408678.485326.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>6650.5</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>6637</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-13.5</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731408678.605673</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731408680.180497</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731408678.605673.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731408680.180497.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>6662.5</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>6630</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>32.5</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731408680.6584914</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731408683.2943995</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731408680.6584914.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731408683.2943995.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>6601</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>6599.5</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-1.5</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731408684.9616337</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731408685.5715692</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731408684.9616337.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731408685.5715692.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>6601.5</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>6599.5</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731408685.9284258</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731408686.5392215</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731408685.9284258.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731408686.5392215.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>6601.5</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>6596</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>5.5</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731408686.5531573</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731408686.5934083</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731408686.5531573.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731408686.5934083.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>6596</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>6601.5</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>5.5</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731408688.027695</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731408690.6958568</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731408688.027695.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731408690.6958568.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>508.95</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>507.6</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>1.349999999999966</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731408697.2424827</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731408698.7036467</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731408697.2424827.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731408698.7036467.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>505.9</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>506.95</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>1.050000000000011</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731408705.574591</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731408705.9058962</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731408705.574591.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731408705.9058962.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>504.25</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>504.55</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.3000000000000114</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731408706.3887026</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731408706.9539068</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731408706.3887026.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731408706.9539068.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>505.2</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>504.2</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731408708.9353914</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731408709.2233083</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731408708.9353914.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731408709.2233083.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>504.25</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>504.95</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.6999999999999886</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731408710.0392127</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731408710.9209766</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731408710.0392127.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731408710.9209766.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>228.3</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>230.09</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>1.789999999999992</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.7799999999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731408718.2971685</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731408721.9879656</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731408718.2971685.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731408721.9879656.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>227.79</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>228.73</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.9399999999999977</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.41</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731408722.591179</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731408726.464762</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731408722.591179.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731408726.464762.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>229.31</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>229.66</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-0.3499999999999943</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731408730.5359259</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731408731.7207918</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731408730.5359259.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731408731.7207918.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>230.36</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>230.31</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.05000000000001137</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731408732.8535876</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731408733.0096462</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731408732.8535876.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731408733.0096462.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>230.07</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>230.37</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.3000000000000114</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731408733.5136528</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731408734.0556173</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731408733.5136528.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731408734.0556173.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>230.16</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>230.24</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.08000000000001251</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731408735.0359416</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731408735.826008</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731408735.0359416.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731408735.826008.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>1035.2</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>1031.8</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>3.400000000000091</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731408739.041313</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731408748.4829376</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731408739.041313.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731408748.4829376.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>1026</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>1023.6</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-2.399999999999977</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731408754.8873265</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731408755.4445643</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731408754.8873265.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731408755.4445643.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>1018</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>1020.4</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>2.399999999999977</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731408756.121227</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731408757.2788255</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731408756.121227.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731408757.2788255.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>1018</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>1019</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731408757.602158</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731408758.3224397</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731408757.602158.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731408758.3224397.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>1020</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>1017.2</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>2.799999999999955</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731408760.6769605</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731408760.6769605.png</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731408760.6769605.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>11.859</v>
       </c>
-      <c r="J35" t="n">
-        <v>11.859</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
+      <c r="L35" t="n">
+        <v>11.869</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-0.009999999999999787</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731408762.9986944</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731408763.5787008</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731408762.9986944.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731408763.5787008.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>128.18</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>128.6</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.4199999999999875</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731408766.2512286</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731408770.094335</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731408766.2512286.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731408770.094335.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>128.04</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>128.04</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2232,1257 +2569,1491 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731408776.992855</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731408778.8155262</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731408776.992855.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731408778.8155262.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>128.52</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>128</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.5200000000000102</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731408779.1897016</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731408782.353394</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731408779.1897016.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731408782.353394.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>127.36</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>127.66</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.2999999999999972</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731408783.3973408</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731408784.195462</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731408783.3973408.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731408784.195462.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>127.6</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>127.68</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.08000000000001251</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731408786.2021697</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731408786.2021697.png</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731408786.2021697.png</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>127.78</v>
       </c>
-      <c r="J41" t="n">
-        <v>127.78</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
+      <c r="L41" t="n">
+        <v>127.7</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.07999999999999829</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731408791.2244904</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731408797.7186565</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731408791.2244904.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731408797.7186565.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>163.86</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>164.82</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.9599999999999795</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.59</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731408800.0545442</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731408803.792384</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731408800.0545442.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731408803.792384.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>165.28</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>165.1</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731408807.0613976</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731408808.919485</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731408807.0613976.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731408808.919485.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>165.22</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>165.06</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.1599999999999966</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731408810.378418</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731408810.378418.png</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731408810.378418.png</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>165.66</v>
       </c>
-      <c r="J45" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
+      <c r="L45" t="n">
+        <v>165.7</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-0.03999999999999204</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731408822.6379695</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731408822.9590626</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731408822.6379695.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731408822.9590626.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>50.27</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>50.39</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.1199999999999974</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731408824.239657</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731408825.6791923</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731408824.239657.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731408825.6791923.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>50.21</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>50.4</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.1899999999999977</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731408826.6529043</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731408827.276793</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731408826.6529043.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731408827.276793.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>50.55</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>50.36</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.1899999999999977</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731408831.0849779</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731408833.6214774</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731408831.0849779.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731408833.6214774.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>50.345</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>50.34</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.004999999999995453</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731408834.677924</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731408835.2301514</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731408834.677924.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731408835.2301514.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>50.42</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>50.395</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.02499999999999858</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731408846.5874383</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731408849.5336163</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731408846.5874383.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731408849.5336163.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>1401.2</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>1402.8</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>1.599999999999909</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731408849.971376</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731408851.4650803</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731408849.971376.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731408851.4650803.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>1408</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>1403</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>5</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731408852.086198</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731408855.0867105</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731408852.086198.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731408855.0867105.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>1393.2</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>1400</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>6.799999999999955</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731408855.1813037</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731408856.5704439</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731408855.1813037.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731408856.5704439.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>1400.2</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>1399.2</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731408860.029408</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731408862.322713</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731408860.029408.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731408862.322713.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>60.96</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>60.68</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731408867.7144678</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731408872.382028</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731408867.7144678.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731408872.382028.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>60.14</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>60.37</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.2299999999999969</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.38</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731408878.4295073</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731408880.1661224</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731408878.4295073.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731408880.1661224.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>60.19</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>60.16</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731408880.4559536</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731408882.0755532</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731408880.4559536.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731408882.0755532.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>60.25</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>60.29</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-0.03999999999999915</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731408883.8759923</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731408885.4045663</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731408883.8759923.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731408885.4045663.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>97.56999999999999</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>97.55</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.01999999999999602</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731408890.02932</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731408898.3433237</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/SELG1731408890.02932.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/SELG1731408898.3433237.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>56.63</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>57.01</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.3799999999999955</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.67</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731408899.9343805</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731408901.0652182</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/SELG1731408899.9343805.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/SELG1731408901.0652182.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>57.44</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>56.98</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.4600000000000009</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731408905.5362606</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731408906.6775084</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/SELG1731408905.5362606.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/SELG1731408906.6775084.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>56.88</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>56.89</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.00999999999999801</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731408906.7164876</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731408907.3521934</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/SELG1731408906.7164876.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/SELG1731408907.3521934.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>56.88</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>56.88</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3490,40 +4061,49 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731408909.0238435</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731408909.0238435.png</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731408909.0238435.png</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>57.13</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>57.13</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3531,1536 +4111,1824 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731408910.013796</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731408911.0681698</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731408910.013796.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731408911.0681698.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>144.42</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>143.16</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>1.259999999999991</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.8699999999999999</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731408923.290728</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731408925.4769585</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731408923.290728.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731408925.4769585.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>144.94</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>145.36</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>-0.4200000000000159</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-0.29</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731408929.9597325</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731408930.0704966</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731408929.9597325.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731408930.0704966.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>145.62</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>145.2</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.4200000000000159</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731408930.1651666</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731408931.8390443</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731408930.1651666.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731408931.8390443.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>145.98</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>145.22</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.7599999999999909</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731408932.763582</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731408932.763582.png</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731408932.763582.png</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>145.14</v>
       </c>
-      <c r="J69" t="n">
-        <v>145.14</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
+      <c r="L69" t="n">
+        <v>145.26</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.1200000000000045</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731408933.871089</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731408934.983565</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731408933.871089.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731408934.983565.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>21.06</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>20.883</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.1769999999999996</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0.84</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731408936.8081763</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731408945.2212121</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731408936.8081763.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731408945.2212121.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>20.645</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>20.775</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.129999999999999</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.63</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731408945.7579386</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731408948.0293596</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731408945.7579386.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731408948.0293596.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>20.896</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>20.849</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.0470000000000006</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731408952.6892595</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731408954.83866</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731408952.6892595.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731408954.83866.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>20.748</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>20.85</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>-0.1020000000000003</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-0.49</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731408955.835288</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731408956.7567987</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731408955.835288.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731408956.7567987.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>676</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>676.95</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>0.9500000000000455</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731408960.0107758</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731408969.9302576</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731408960.0107758.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731408969.9302576.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>672.65</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>669.6</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>-3.049999999999955</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-0.45</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731408972.0258427</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731408972.0258427.png</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731408972.0258427.png</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>673.3</v>
       </c>
-      <c r="J76" t="n">
-        <v>673.3</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0</v>
+      <c r="L76" t="n">
+        <v>677.45</v>
+      </c>
+      <c r="M76" t="n">
+        <v>-4.150000000000091</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-0.62</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731408979.4438245</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731408980.4923136</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/FEES1731408979.4438245.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/FEES1731408980.4923136.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>0.09868</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>0.09948000000000001</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>0.000800000000000009</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.8099999999999999</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731408982.6733487</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731408986.4826381</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/FEES1731408982.6733487.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/FEES1731408986.4826381.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>0.10018</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>0.09968</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0.0005000000000000004</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731408992.0302927</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731408992.6233504</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/FEES1731408992.0302927.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/FEES1731408992.6233504.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>0.09864000000000001</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>0.09976</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.001119999999999996</v>
+      </c>
+      <c r="N79" t="n">
+        <v>1.14</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731408998.7171273</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731408999.1193008</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/FEES1731408998.7171273.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/FEES1731408999.1193008.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>0.09882000000000001</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>0.09894000000000001</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>0.000120000000000009</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731409000.5166302</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1731409000.5166302.png</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
+          <t>./test_images/FEES1731409000.5166302.png</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>0.09920000000000001</v>
       </c>
-      <c r="J81" t="n">
-        <v>0.09920000000000001</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0</v>
+      <c r="L81" t="n">
+        <v>0.09916</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4.000000000001225e-05</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731409002.210191</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731409007.9001</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731409002.210191.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731409007.9001.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>0.5979</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>0.5994</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0.001500000000000057</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731409011.5849116</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731409017.5304823</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731409011.5849116.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731409017.5304823.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>0.6012000000000001</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>0.601</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>0.000200000000000089</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731409022.552398</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731409022.6469557</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731409022.552398.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/HYDR1731409022.6469557.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>0.6031000000000001</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>0.602</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>0.001100000000000101</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731409023.4107904</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731409023.9780498</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/MXI1731409023.4107904.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/MXI1731409023.9780498.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>2981.65</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>2990</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>8.349999999999909</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731409025.9612408</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731409029.2703354</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/MXI1731409025.9612408.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/MXI1731409029.2703354.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>2983.75</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>2977.9</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>-5.849999999999909</v>
+      </c>
+      <c r="N86" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731409029.9293613</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731409030.4459016</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/MXI1731409029.9293613.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/MXI1731409030.4459016.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>2971.1</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>2975.35</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>4.25</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731409031.6112332</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731409033.2219574</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/MXI1731409031.6112332.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/MXI1731409033.2219574.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>2966</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>2967.4</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>1.400000000000091</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731409034.5793324</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731409035.4074545</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/MXI1731409034.5793324.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/MXI1731409035.4074545.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>2955.5</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>2961.95</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>6.449999999999818</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731409035.9642277</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731409037.0170069</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/MXI1731409035.9642277.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/MXI1731409037.0170069.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>2965.5</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>2963.3</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>2.199999999999818</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731409037.9990842</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731409039.5312357</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/MXI1731409037.9990842.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/MXI1731409039.5312357.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>2977.5</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>2975</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>2.5</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731409040.2166653</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731409043.2340229</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/MXI1731409040.2166653.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/MXI1731409043.2340229.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>2970.05</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>2963.8</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>-6.25</v>
+      </c>
+      <c r="N92" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731409043.3549922</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731409043.6835322</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/MXI1731409043.3549922.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/MXI1731409043.6835322.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>2966.8</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>2962.5</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>4.300000000000182</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731409047.7155125</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731409047.7155125.png</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731409047.7155125.png</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>2967.2</v>
       </c>
-      <c r="J94" t="n">
-        <v>2967.2</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0</v>
+      <c r="L94" t="n">
+        <v>2965.3</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1.899999999999636</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731409052.1814384</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1731409060.5883217</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731409052.1814384.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731409060.5883217.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>34.235</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>34.28</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>0.04500000000000171</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731409062.1419566</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1731409063.287836</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731409062.1419566.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731409063.287836.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>34.5</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>34.255</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>0.2449999999999974</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.7100000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -5074,7 +5942,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5103,6 +5971,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -5111,13 +5989,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17.34999999999991</v>
+        <v>19.24999999999955</v>
       </c>
       <c r="C2" t="n">
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>1.734999999999991</v>
+        <v>1.924999999999955</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6299999999999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="3">
@@ -5135,6 +6019,12 @@
       <c r="D3" t="n">
         <v>11.4375</v>
       </c>
+      <c r="E3" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -5143,13 +6033,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.320000000000007</v>
+        <v>1.400000000000006</v>
       </c>
       <c r="C4" t="n">
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2200000000000012</v>
+        <v>0.2333333333333343</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="5">
@@ -5167,6 +6063,12 @@
       <c r="D5" t="n">
         <v>0.4683333333333384</v>
       </c>
+      <c r="E5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -5175,13 +6077,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.019999999999982</v>
+        <v>2.139999999999986</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4039999999999964</v>
+        <v>0.4279999999999973</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="7">
@@ -5199,6 +6107,12 @@
       <c r="D7" t="n">
         <v>0.1699999999999989</v>
       </c>
+      <c r="E7" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -5207,13 +6121,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.002540000000000014</v>
+        <v>0.002580000000000027</v>
       </c>
       <c r="C8" t="n">
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0005080000000000029</v>
+        <v>0.0005160000000000054</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="9">
@@ -5231,6 +6151,12 @@
       <c r="D9" t="n">
         <v>0.8799999999999955</v>
       </c>
+      <c r="E9" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -5247,6 +6173,12 @@
       <c r="D10" t="n">
         <v>0.1059999999999974</v>
       </c>
+      <c r="E10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -5263,6 +6195,12 @@
       <c r="D11" t="n">
         <v>1.440000000000009</v>
       </c>
+      <c r="E11" t="n">
+        <v>0.7100000000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -5271,13 +6209,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.299999999999983</v>
+        <v>1.259999999999991</v>
       </c>
       <c r="C12" t="n">
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3249999999999957</v>
+        <v>0.3149999999999977</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="13">
@@ -5287,13 +6231,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.009999999999990905</v>
+        <v>-0.6999999999999886</v>
       </c>
       <c r="C13" t="n">
         <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.002499999999997726</v>
+        <v>-0.1749999999999972</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="14">
@@ -5311,6 +6261,12 @@
       <c r="D14" t="n">
         <v>0.06299999999999972</v>
       </c>
+      <c r="E14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -5327,6 +6283,12 @@
       <c r="D15" t="n">
         <v>0.125</v>
       </c>
+      <c r="E15" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -5343,6 +6305,12 @@
       <c r="D16" t="n">
         <v>0.1424999999999983</v>
       </c>
+      <c r="E16" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -5359,6 +6327,12 @@
       <c r="D17" t="n">
         <v>3.599999999999966</v>
       </c>
+      <c r="E17" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.26</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -5375,6 +6349,12 @@
       <c r="D18" t="n">
         <v>0.0009333333333334156</v>
       </c>
+      <c r="E18" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -5383,13 +6363,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-2.099999999999909</v>
+        <v>-6.25</v>
       </c>
       <c r="C19" t="n">
         <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.6999999999999696</v>
+        <v>-2.083333333333333</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.9299999999999999</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="20">
@@ -5407,6 +6393,12 @@
       <c r="D20" t="n">
         <v>0.1449999999999996</v>
       </c>
+      <c r="E20" t="n">
+        <v>0.8400000000000001</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -5415,13 +6407,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>-0.009999999999999787</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>-0.009999999999999787</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="22">
@@ -5439,6 +6437,12 @@
       <c r="D22" t="n">
         <v>0.01999999999999602</v>
       </c>
+      <c r="E22" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -5453,6 +6457,10 @@
         <v>0</v>
       </c>
       <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
